--- a/message_ix/tools/add_tech/learning_data.xlsx
+++ b/message_ix/tools/add_tech/learning_data.xlsx
@@ -7,29 +7,38 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="learning_par" sheetId="1" r:id="rId1"/>
-    <sheet name="eos_par" sheetId="2" r:id="rId2"/>
-    <sheet name="nbr_unit_ref" sheetId="3" r:id="rId3"/>
-    <sheet name="u_ref" sheetId="4" r:id="rId4"/>
-    <sheet name="u" sheetId="5" r:id="rId5"/>
+    <sheet name="growth_new_capacity_up" sheetId="1" r:id="rId1"/>
+    <sheet name="initial_new_capacity_up" sheetId="2" r:id="rId2"/>
+    <sheet name="inv_cost" sheetId="3" r:id="rId3"/>
+    <sheet name="fix_cost" sheetId="4" r:id="rId4"/>
+    <sheet name="var_cost" sheetId="5" r:id="rId5"/>
+    <sheet name="emission_factor" sheetId="6" r:id="rId6"/>
+    <sheet name="capacity_factor" sheetId="7" r:id="rId7"/>
+    <sheet name="technical_lifetime" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="21">
+  <si>
+    <t>node_loc</t>
+  </si>
   <si>
     <t>technology</t>
   </si>
   <si>
+    <t>year_vtg</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
     <t>unit</t>
   </si>
   <si>
-    <t>wind_ppl</t>
+    <t>DACCS</t>
   </si>
   <si>
     <t>-</t>
@@ -38,19 +47,43 @@
     <t>GW</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>DACCS</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>large</t>
+    <t>Westeros</t>
+  </si>
+  <si>
+    <t>Westerlands</t>
+  </si>
+  <si>
+    <t>$/kW</t>
+  </si>
+  <si>
+    <t>year_act</t>
+  </si>
+  <si>
+    <t>Westerland</t>
+  </si>
+  <si>
+    <t>$/kWa</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>emission</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>tCO2/kWa</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -408,13 +441,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,16 +457,22 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>0.9</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -443,13 +482,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,16 +498,22 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>0.9</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -478,13 +523,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,16 +539,39 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>2500</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>2200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -513,13 +581,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,16 +597,42 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -548,108 +642,208 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>-20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
